--- a/Vacancies Results.xlsx
+++ b/Vacancies Results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naytrog1/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naytrog1/practica1/Vacancies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B3F06D81-9E45-6B4B-834A-67B6A8421884}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F1BC9ED5-1D3B-C843-987B-6F56C8AE3F04}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25520" windowHeight="14220" xr2:uid="{782C9D7D-4B80-8D40-84FB-D3591E3DFD67}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Au</t>
   </si>
@@ -439,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD06EEA-6776-0E47-A358-CB912691EE50}">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -544,19 +544,12 @@
       <c r="K2">
         <v>0.76</v>
       </c>
-      <c r="L2" s="2">
-        <v>0.25</v>
+      <c r="L2" s="1">
+        <v>0.05</v>
       </c>
       <c r="M2">
-        <f>8000-6000</f>
-        <v>2000</v>
-      </c>
-      <c r="N2">
-        <v>1796</v>
-      </c>
-      <c r="O2" s="3">
-        <f>(N2/M2)</f>
-        <v>0.89800000000000002</v>
+        <f>8000-7600</f>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -587,7 +580,7 @@
         <v>40.799999999999997</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I5" si="0">C3*F3</f>
+        <f>C3*F3</f>
         <v>81.599999999999994</v>
       </c>
       <c r="J3">
@@ -597,18 +590,18 @@
         <v>0.76</v>
       </c>
       <c r="L3" s="1">
-        <v>0.5</v>
+        <v>0.13</v>
       </c>
       <c r="M3">
-        <f>8000-4000</f>
-        <v>4000</v>
+        <f>8000-6960</f>
+        <v>1040</v>
       </c>
       <c r="N3">
-        <v>3474</v>
+        <v>985</v>
       </c>
       <c r="O3" s="3">
-        <f t="shared" ref="O3:O4" si="1">(N3/M3)</f>
-        <v>0.86850000000000005</v>
+        <f>(N3/M3)</f>
+        <v>0.94711538461538458</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -639,7 +632,7 @@
         <v>40.799999999999997</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f>C4*F4</f>
         <v>81.599999999999994</v>
       </c>
       <c r="J4">
@@ -648,19 +641,19 @@
       <c r="K4">
         <v>0.76</v>
       </c>
-      <c r="L4" s="1">
-        <v>0.13</v>
+      <c r="L4" s="2">
+        <v>0.25</v>
       </c>
       <c r="M4">
-        <f>8000-6960</f>
-        <v>1040</v>
+        <f>8000-6000</f>
+        <v>2000</v>
       </c>
       <c r="N4">
-        <v>985</v>
+        <v>1796</v>
       </c>
       <c r="O4" s="3">
-        <f t="shared" si="1"/>
-        <v>0.94711538461538458</v>
+        <f>(N4/M4)</f>
+        <v>0.89800000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -691,7 +684,7 @@
         <v>40.799999999999997</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
+        <f>C5*F5</f>
         <v>81.599999999999994</v>
       </c>
       <c r="J5">
@@ -701,14 +694,76 @@
         <v>0.76</v>
       </c>
       <c r="L5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M5">
+        <f>8000-4000</f>
+        <v>4000</v>
+      </c>
+      <c r="N5">
+        <v>3474</v>
+      </c>
+      <c r="O5" s="3">
+        <f>(N5/M5)</f>
+        <v>0.86850000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>4.08</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <f>C6*D6</f>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="H6">
+        <f>C6*E6</f>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="I6">
+        <f>C6*F6</f>
+        <v>81.599999999999994</v>
+      </c>
+      <c r="J6">
+        <v>8000</v>
+      </c>
+      <c r="K6">
+        <v>0.76</v>
+      </c>
+      <c r="L6" s="1">
         <v>0.73</v>
       </c>
-      <c r="M5">
+      <c r="M6">
         <f>8000-2160</f>
         <v>5840</v>
       </c>
+      <c r="N6">
+        <v>5329</v>
+      </c>
+      <c r="O6" s="3">
+        <f>(N6/M6)</f>
+        <v>0.91249999999999998</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:O6">
+    <sortCondition ref="L1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Vacancies Results.xlsx
+++ b/Vacancies Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naytrog1/practica1/Vacancies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F1BC9ED5-1D3B-C843-987B-6F56C8AE3F04}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C61173B8-0815-5044-A512-B2482AA3A844}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25520" windowHeight="14220" xr2:uid="{782C9D7D-4B80-8D40-84FB-D3591E3DFD67}"/>
   </bookViews>
@@ -442,7 +442,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -551,6 +551,13 @@
         <f>8000-7600</f>
         <v>400</v>
       </c>
+      <c r="N2">
+        <v>394</v>
+      </c>
+      <c r="O2" s="3">
+        <f>(N2/M2)</f>
+        <v>0.98499999999999999</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">

--- a/Vacancies Results.xlsx
+++ b/Vacancies Results.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naytrog1/practica1/Vacancies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C61173B8-0815-5044-A512-B2482AA3A844}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72EFC145-DBFC-BF4D-9D21-08603C74191B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25520" windowHeight="14220" xr2:uid="{782C9D7D-4B80-8D40-84FB-D3591E3DFD67}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Vacancies Results" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>Au</t>
   </si>
@@ -76,6 +76,15 @@
   </si>
   <si>
     <t>Vacancies Overlap</t>
+  </si>
+  <si>
+    <t>Li</t>
+  </si>
+  <si>
+    <t>BCC</t>
+  </si>
+  <si>
+    <t>Base Vectors</t>
   </si>
 </sst>
 </file>
@@ -119,11 +128,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,337 +458,422 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD06EEA-6776-0E47-A358-CB912691EE50}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="2"/>
+      <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>4.08</v>
       </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
+      <c r="D2" s="2">
+        <f>IF(B2="FCC",4,IF(B2="BCC",2,IF(B2="SC",2)))</f>
+        <v>4</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2">
         <v>20</v>
       </c>
-      <c r="G2">
-        <f>C2*D2</f>
-        <v>40.799999999999997</v>
-      </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <f>C2*E2</f>
         <v>40.799999999999997</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <f>C2*F2</f>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="J2" s="2">
+        <f>C2*G2</f>
         <v>81.599999999999994</v>
       </c>
-      <c r="J2">
+      <c r="K2" s="2">
+        <f>D2*E2*F2*G2</f>
         <v>8000</v>
       </c>
-      <c r="K2">
+      <c r="L2" s="2">
+        <f>IF(B2="FCC",0.76,IF(B2="BCC",0.16,IF(B2="SC",0.38)))</f>
         <v>0.76</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="3">
         <v>0.05</v>
       </c>
-      <c r="M2">
+      <c r="N2" s="2">
         <f>8000-7600</f>
         <v>400</v>
       </c>
-      <c r="N2">
+      <c r="O2" s="2">
         <v>394</v>
       </c>
-      <c r="O2" s="3">
-        <f>(N2/M2)</f>
+      <c r="P2" s="4">
+        <f>(O2/N2)</f>
         <v>0.98499999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>4.08</v>
       </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D8" si="0">IF(B3="FCC",4,IF(B3="BCC",2,IF(B3="SC",2)))</f>
+        <v>4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2">
         <v>20</v>
       </c>
-      <c r="G3">
-        <f>C3*D3</f>
-        <v>40.799999999999997</v>
-      </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <f>C3*E3</f>
         <v>40.799999999999997</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <f>C3*F3</f>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="J3" s="2">
+        <f>C3*G3</f>
         <v>81.599999999999994</v>
       </c>
-      <c r="J3">
+      <c r="K3" s="2">
+        <f t="shared" ref="K3:K7" si="1">D3*E3*F3*G3</f>
         <v>8000</v>
       </c>
-      <c r="K3">
+      <c r="L3" s="2">
+        <f t="shared" ref="L3:L7" si="2">IF(B3="FCC",0.76,IF(B3="BCC",0.16,IF(B3="SC",0.38)))</f>
         <v>0.76</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="3">
         <v>0.13</v>
       </c>
-      <c r="M3">
+      <c r="N3" s="2">
         <f>8000-6960</f>
         <v>1040</v>
       </c>
-      <c r="N3">
+      <c r="O3" s="2">
         <v>985</v>
       </c>
-      <c r="O3" s="3">
-        <f>(N3/M3)</f>
+      <c r="P3" s="4">
+        <f>(O3/N3)</f>
         <v>0.94711538461538458</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>4.08</v>
       </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2">
         <v>20</v>
       </c>
-      <c r="G4">
-        <f>C4*D4</f>
-        <v>40.799999999999997</v>
-      </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <f>C4*E4</f>
         <v>40.799999999999997</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <f>C4*F4</f>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="J4" s="2">
+        <f>C4*G4</f>
         <v>81.599999999999994</v>
       </c>
-      <c r="J4">
+      <c r="K4" s="2">
+        <f t="shared" si="1"/>
         <v>8000</v>
       </c>
-      <c r="K4">
+      <c r="L4" s="2">
+        <f t="shared" si="2"/>
         <v>0.76</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M4" s="5">
         <v>0.25</v>
       </c>
-      <c r="M4">
+      <c r="N4" s="2">
         <f>8000-6000</f>
         <v>2000</v>
       </c>
-      <c r="N4">
+      <c r="O4" s="2">
         <v>1796</v>
       </c>
-      <c r="O4" s="3">
-        <f>(N4/M4)</f>
+      <c r="P4" s="4">
+        <f>(O4/N4)</f>
         <v>0.89800000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>4.08</v>
       </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5">
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2">
         <v>20</v>
       </c>
-      <c r="G5">
-        <f>C5*D5</f>
-        <v>40.799999999999997</v>
-      </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <f>C5*E5</f>
         <v>40.799999999999997</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <f>C5*F5</f>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="J5" s="2">
+        <f>C5*G5</f>
         <v>81.599999999999994</v>
       </c>
-      <c r="J5">
+      <c r="K5" s="2">
+        <f t="shared" si="1"/>
         <v>8000</v>
       </c>
-      <c r="K5">
+      <c r="L5" s="2">
+        <f t="shared" si="2"/>
         <v>0.76</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="3">
         <v>0.5</v>
       </c>
-      <c r="M5">
+      <c r="N5" s="2">
         <f>8000-4000</f>
         <v>4000</v>
       </c>
-      <c r="N5">
+      <c r="O5" s="2">
         <v>3474</v>
       </c>
-      <c r="O5" s="3">
-        <f>(N5/M5)</f>
+      <c r="P5" s="4">
+        <f>(O5/N5)</f>
         <v>0.86850000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>4.08</v>
       </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2">
         <v>20</v>
       </c>
-      <c r="G6">
-        <f>C6*D6</f>
-        <v>40.799999999999997</v>
-      </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <f>C6*E6</f>
         <v>40.799999999999997</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <f>C6*F6</f>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="J6" s="2">
+        <f>C6*G6</f>
         <v>81.599999999999994</v>
       </c>
-      <c r="J6">
+      <c r="K6" s="2">
+        <f t="shared" si="1"/>
         <v>8000</v>
       </c>
-      <c r="K6">
+      <c r="L6" s="2">
+        <f t="shared" si="2"/>
         <v>0.76</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="3">
         <v>0.73</v>
       </c>
-      <c r="M6">
+      <c r="N6" s="2">
         <f>8000-2160</f>
         <v>5840</v>
       </c>
-      <c r="N6">
+      <c r="O6" s="2">
         <v>5329</v>
       </c>
-      <c r="O6" s="3">
-        <f>(N6/M6)</f>
+      <c r="P6" s="4">
+        <f>(O6/N6)</f>
         <v>0.91249999999999998</v>
       </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3.51</v>
+      </c>
+      <c r="D7" s="2">
+        <f>IF(B7="FCC",4,IF(B7="BCC",2,IF(B7="SC",2)))</f>
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2">
+        <f>C7*E7</f>
+        <v>35.099999999999994</v>
+      </c>
+      <c r="I7" s="2">
+        <f>C7*F7</f>
+        <v>35.099999999999994</v>
+      </c>
+      <c r="J7" s="2">
+        <f>C7*G7</f>
+        <v>35.099999999999994</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.16</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:O6">
-    <sortCondition ref="L1"/>
+  <sortState ref="A2:P6">
+    <sortCondition ref="M1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Vacancies Results.xlsx
+++ b/Vacancies Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naytrog1/practica1/Vacancies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72EFC145-DBFC-BF4D-9D21-08603C74191B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100008_{6264A091-6098-714C-9BFA-F5D4AC59DE8E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25520" windowHeight="14220" xr2:uid="{782C9D7D-4B80-8D40-84FB-D3591E3DFD67}"/>
   </bookViews>
@@ -128,19 +128,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -461,7 +458,7 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -580,13 +577,13 @@
         <v>0.05</v>
       </c>
       <c r="N2" s="2">
-        <f>8000-7600</f>
+        <f>K2-7600</f>
         <v>400</v>
       </c>
       <c r="O2" s="2">
         <v>394</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="3">
         <f>(O2/N2)</f>
         <v>0.98499999999999999</v>
       </c>
@@ -634,17 +631,17 @@
         <f t="shared" ref="L3:L7" si="2">IF(B3="FCC",0.76,IF(B3="BCC",0.16,IF(B3="SC",0.38)))</f>
         <v>0.76</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="4">
         <v>0.13</v>
       </c>
       <c r="N3" s="2">
-        <f>8000-6960</f>
+        <f>K3-6960</f>
         <v>1040</v>
       </c>
       <c r="O3" s="2">
         <v>985</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="3">
         <f>(O3/N3)</f>
         <v>0.94711538461538458</v>
       </c>
@@ -692,17 +689,17 @@
         <f t="shared" si="2"/>
         <v>0.76</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="3">
         <v>0.25</v>
       </c>
       <c r="N4" s="2">
-        <f>8000-6000</f>
+        <f>K4-6000</f>
         <v>2000</v>
       </c>
       <c r="O4" s="2">
         <v>1796</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="3">
         <f>(O4/N4)</f>
         <v>0.89800000000000002</v>
       </c>
@@ -750,17 +747,17 @@
         <f t="shared" si="2"/>
         <v>0.76</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="4">
         <v>0.5</v>
       </c>
       <c r="N5" s="2">
-        <f>8000-4000</f>
+        <f>K5-4000</f>
         <v>4000</v>
       </c>
       <c r="O5" s="2">
         <v>3474</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="3">
         <f>(O5/N5)</f>
         <v>0.86850000000000005</v>
       </c>
@@ -808,17 +805,17 @@
         <f t="shared" si="2"/>
         <v>0.76</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="4">
         <v>0.73</v>
       </c>
       <c r="N6" s="2">
-        <f>8000-2160</f>
+        <f>K6-2160</f>
         <v>5840</v>
       </c>
       <c r="O6" s="2">
         <v>5329</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="3">
         <f>(O6/N6)</f>
         <v>0.91249999999999998</v>
       </c>
@@ -866,7 +863,9 @@
         <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
-      <c r="M7" s="2"/>
+      <c r="M7" s="3">
+        <v>0.5</v>
+      </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>

--- a/Vacancies Results.xlsx
+++ b/Vacancies Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naytrog1/practica1/Vacancies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100008_{6264A091-6098-714C-9BFA-F5D4AC59DE8E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B0B5D3EB-92D8-A74C-B1A3-94B3BCD93A24}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25520" windowHeight="14220" xr2:uid="{782C9D7D-4B80-8D40-84FB-D3591E3DFD67}"/>
   </bookViews>
@@ -39,52 +39,52 @@
     <t>Structure</t>
   </si>
   <si>
-    <t>Lattice Constant</t>
-  </si>
-  <si>
-    <t>Vacancies Percentage</t>
-  </si>
-  <si>
-    <t>Number of Vacancies</t>
-  </si>
-  <si>
-    <t>Vacancies Found</t>
-  </si>
-  <si>
-    <t>Percentage found</t>
-  </si>
-  <si>
-    <t>Copies in X</t>
-  </si>
-  <si>
-    <t>Copies in Y</t>
-  </si>
-  <si>
-    <t>Copies in Z</t>
-  </si>
-  <si>
-    <t>Large on X</t>
-  </si>
-  <si>
-    <t>Large on Y</t>
-  </si>
-  <si>
-    <t>Large on Z</t>
-  </si>
-  <si>
-    <t>Number of Atoms</t>
-  </si>
-  <si>
-    <t>Vacancies Overlap</t>
-  </si>
-  <si>
     <t>Li</t>
   </si>
   <si>
     <t>BCC</t>
   </si>
   <si>
-    <t>Base Vectors</t>
+    <t>Lattice_Constant</t>
+  </si>
+  <si>
+    <t>Base_Vectors</t>
+  </si>
+  <si>
+    <t>Copies_in_X</t>
+  </si>
+  <si>
+    <t>Copies_in_Y</t>
+  </si>
+  <si>
+    <t>Copies_in_Z</t>
+  </si>
+  <si>
+    <t>Large_on_X</t>
+  </si>
+  <si>
+    <t>Large_on_Y</t>
+  </si>
+  <si>
+    <t>Large_on_Z</t>
+  </si>
+  <si>
+    <t>Number_of_Atoms</t>
+  </si>
+  <si>
+    <t>Vacancies_Overlap</t>
+  </si>
+  <si>
+    <t>Vacancies_Percentage</t>
+  </si>
+  <si>
+    <t>Number_of_Vacancies</t>
+  </si>
+  <si>
+    <t>Vacancies_Found</t>
+  </si>
+  <si>
+    <t>Percentage_found</t>
   </si>
 </sst>
 </file>
@@ -458,25 +458,25 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
@@ -487,46 +487,46 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="T1" s="1"/>
     </row>
@@ -554,15 +554,15 @@
         <v>20</v>
       </c>
       <c r="H2" s="2">
-        <f>C2*E2</f>
+        <f t="shared" ref="H2:H7" si="0">C2*E2</f>
         <v>40.799999999999997</v>
       </c>
       <c r="I2" s="2">
-        <f>C2*F2</f>
+        <f t="shared" ref="I2:I7" si="1">C2*F2</f>
         <v>40.799999999999997</v>
       </c>
       <c r="J2" s="2">
-        <f>C2*G2</f>
+        <f t="shared" ref="J2:J7" si="2">C2*G2</f>
         <v>81.599999999999994</v>
       </c>
       <c r="K2" s="2">
@@ -599,7 +599,7 @@
         <v>4.08</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D8" si="0">IF(B3="FCC",4,IF(B3="BCC",2,IF(B3="SC",2)))</f>
+        <f t="shared" ref="D3:D6" si="3">IF(B3="FCC",4,IF(B3="BCC",2,IF(B3="SC",2)))</f>
         <v>4</v>
       </c>
       <c r="E3" s="2">
@@ -612,23 +612,23 @@
         <v>20</v>
       </c>
       <c r="H3" s="2">
-        <f>C3*E3</f>
+        <f t="shared" si="0"/>
         <v>40.799999999999997</v>
       </c>
       <c r="I3" s="2">
-        <f>C3*F3</f>
+        <f t="shared" si="1"/>
         <v>40.799999999999997</v>
       </c>
       <c r="J3" s="2">
-        <f>C3*G3</f>
+        <f t="shared" si="2"/>
         <v>81.599999999999994</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" ref="K3:K7" si="1">D3*E3*F3*G3</f>
+        <f t="shared" ref="K3:K7" si="4">D3*E3*F3*G3</f>
         <v>8000</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" ref="L3:L7" si="2">IF(B3="FCC",0.76,IF(B3="BCC",0.16,IF(B3="SC",0.38)))</f>
+        <f t="shared" ref="L3:L7" si="5">IF(B3="FCC",0.76,IF(B3="BCC",0.16,IF(B3="SC",0.38)))</f>
         <v>0.76</v>
       </c>
       <c r="M3" s="4">
@@ -657,7 +657,7 @@
         <v>4.08</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E4" s="2">
@@ -670,23 +670,23 @@
         <v>20</v>
       </c>
       <c r="H4" s="2">
-        <f>C4*E4</f>
+        <f t="shared" si="0"/>
         <v>40.799999999999997</v>
       </c>
       <c r="I4" s="2">
-        <f>C4*F4</f>
+        <f t="shared" si="1"/>
         <v>40.799999999999997</v>
       </c>
       <c r="J4" s="2">
-        <f>C4*G4</f>
+        <f t="shared" si="2"/>
         <v>81.599999999999994</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8000</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.76</v>
       </c>
       <c r="M4" s="3">
@@ -715,7 +715,7 @@
         <v>4.08</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E5" s="2">
@@ -728,23 +728,23 @@
         <v>20</v>
       </c>
       <c r="H5" s="2">
-        <f>C5*E5</f>
+        <f t="shared" si="0"/>
         <v>40.799999999999997</v>
       </c>
       <c r="I5" s="2">
-        <f>C5*F5</f>
+        <f t="shared" si="1"/>
         <v>40.799999999999997</v>
       </c>
       <c r="J5" s="2">
-        <f>C5*G5</f>
+        <f t="shared" si="2"/>
         <v>81.599999999999994</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8000</v>
       </c>
       <c r="L5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.76</v>
       </c>
       <c r="M5" s="4">
@@ -773,7 +773,7 @@
         <v>4.08</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E6" s="2">
@@ -786,23 +786,23 @@
         <v>20</v>
       </c>
       <c r="H6" s="2">
-        <f>C6*E6</f>
+        <f t="shared" si="0"/>
         <v>40.799999999999997</v>
       </c>
       <c r="I6" s="2">
-        <f>C6*F6</f>
+        <f t="shared" si="1"/>
         <v>40.799999999999997</v>
       </c>
       <c r="J6" s="2">
-        <f>C6*G6</f>
+        <f t="shared" si="2"/>
         <v>81.599999999999994</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8000</v>
       </c>
       <c r="L6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.76</v>
       </c>
       <c r="M6" s="4">
@@ -822,10 +822,10 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2">
         <v>3.51</v>
@@ -844,23 +844,23 @@
         <v>10</v>
       </c>
       <c r="H7" s="2">
-        <f>C7*E7</f>
+        <f t="shared" si="0"/>
         <v>35.099999999999994</v>
       </c>
       <c r="I7" s="2">
-        <f>C7*F7</f>
+        <f t="shared" si="1"/>
         <v>35.099999999999994</v>
       </c>
       <c r="J7" s="2">
-        <f>C7*G7</f>
+        <f t="shared" si="2"/>
         <v>35.099999999999994</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2000</v>
       </c>
       <c r="L7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.16</v>
       </c>
       <c r="M7" s="3">

--- a/Vacancies Results.xlsx
+++ b/Vacancies Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naytrog1/practica1/Vacancies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B0B5D3EB-92D8-A74C-B1A3-94B3BCD93A24}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{589999D9-8635-1A45-A33E-A642C2F7100E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25520" windowHeight="14220" xr2:uid="{782C9D7D-4B80-8D40-84FB-D3591E3DFD67}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Au</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Percentage_found</t>
+  </si>
+  <si>
+    <t>LI</t>
   </si>
 </sst>
 </file>
@@ -455,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD06EEA-6776-0E47-A358-CB912691EE50}">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -554,15 +557,15 @@
         <v>20</v>
       </c>
       <c r="H2" s="2">
-        <f t="shared" ref="H2:H7" si="0">C2*E2</f>
+        <f t="shared" ref="H2:H8" si="0">C2*E2</f>
         <v>40.799999999999997</v>
       </c>
       <c r="I2" s="2">
-        <f t="shared" ref="I2:I7" si="1">C2*F2</f>
+        <f t="shared" ref="I2:I8" si="1">C2*F2</f>
         <v>40.799999999999997</v>
       </c>
       <c r="J2" s="2">
-        <f t="shared" ref="J2:J7" si="2">C2*G2</f>
+        <f t="shared" ref="J2:J8" si="2">C2*G2</f>
         <v>81.599999999999994</v>
       </c>
       <c r="K2" s="2">
@@ -624,11 +627,11 @@
         <v>81.599999999999994</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" ref="K3:K7" si="4">D3*E3*F3*G3</f>
+        <f t="shared" ref="K3:K8" si="4">D3*E3*F3*G3</f>
         <v>8000</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" ref="L3:L7" si="5">IF(B3="FCC",0.76,IF(B3="BCC",0.16,IF(B3="SC",0.38)))</f>
+        <f t="shared" ref="L3:L8" si="5">IF(B3="FCC",0.76,IF(B3="BCC",0.16,IF(B3="SC",0.38)))</f>
         <v>0.76</v>
       </c>
       <c r="M3" s="4">
@@ -866,9 +869,61 @@
       <c r="M7" s="3">
         <v>0.5</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
+      <c r="N7" s="2">
+        <f>K7-1000</f>
+        <v>1000</v>
+      </c>
+      <c r="O7" s="2">
+        <v>757</v>
+      </c>
+      <c r="P7" s="3">
+        <f>(O7/N7)</f>
+        <v>0.75700000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3.51</v>
+      </c>
+      <c r="D8" s="2">
+        <f>IF(B8="FCC",4,IF(B8="BCC",2,IF(B8="SC",2)))</f>
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="0"/>
+        <v>17.549999999999997</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="1"/>
+        <v>17.549999999999997</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="2"/>
+        <v>7.02</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="5"/>
+        <v>0.16</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:P6">
